--- a/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
+++ b/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>2</t>
   </si>
@@ -88,6 +88,60 @@
   </si>
   <si>
     <t>15229706586</t>
+  </si>
+  <si>
+    <t>autoTest282</t>
+  </si>
+  <si>
+    <t>autoTest283</t>
+  </si>
+  <si>
+    <t>autoTest284</t>
+  </si>
+  <si>
+    <t>autoTest285</t>
+  </si>
+  <si>
+    <t>autoTest286</t>
+  </si>
+  <si>
+    <t>autoTest287</t>
+  </si>
+  <si>
+    <t>autoTest288</t>
+  </si>
+  <si>
+    <t>autoTest289</t>
+  </si>
+  <si>
+    <t>autoTest290</t>
+  </si>
+  <si>
+    <t>autoTest291</t>
+  </si>
+  <si>
+    <t>autoTest292</t>
+  </si>
+  <si>
+    <t>431128199201119352</t>
+  </si>
+  <si>
+    <t>autoTest293</t>
+  </si>
+  <si>
+    <t>341502197202267311</t>
+  </si>
+  <si>
+    <t>13607891690</t>
+  </si>
+  <si>
+    <t>autoTest294</t>
+  </si>
+  <si>
+    <t>autoTest295</t>
+  </si>
+  <si>
+    <t>autoTest296</t>
   </si>
   <si>
     <t>蓝明勇</t>
@@ -414,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -511,6 +565,90 @@
       </c>
       <c r="C7" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -535,7 +673,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -560,10 +698,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
+++ b/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>2</t>
   </si>
@@ -142,6 +142,141 @@
   </si>
   <si>
     <t>autoTest296</t>
+  </si>
+  <si>
+    <t>autoTest297</t>
+  </si>
+  <si>
+    <t>350981199704296056</t>
+  </si>
+  <si>
+    <t>13304171157</t>
+  </si>
+  <si>
+    <t>autoTest298</t>
+  </si>
+  <si>
+    <t>350103196204264473</t>
+  </si>
+  <si>
+    <t>13121683113</t>
+  </si>
+  <si>
+    <t>autoTest299</t>
+  </si>
+  <si>
+    <t>520523199102175835</t>
+  </si>
+  <si>
+    <t>13368800716</t>
+  </si>
+  <si>
+    <t>autoTest300</t>
+  </si>
+  <si>
+    <t>410522198505103290</t>
+  </si>
+  <si>
+    <t>18771088217</t>
+  </si>
+  <si>
+    <t>autoTest301</t>
+  </si>
+  <si>
+    <t>341821199704110191</t>
+  </si>
+  <si>
+    <t>15824361173</t>
+  </si>
+  <si>
+    <t>autoTest302</t>
+  </si>
+  <si>
+    <t>152523196809101097</t>
+  </si>
+  <si>
+    <t>13128904982</t>
+  </si>
+  <si>
+    <t>autoTest303</t>
+  </si>
+  <si>
+    <t>36073219501109473X</t>
+  </si>
+  <si>
+    <t>13585663797</t>
+  </si>
+  <si>
+    <t>autoTest304</t>
+  </si>
+  <si>
+    <t>330185196604183438</t>
+  </si>
+  <si>
+    <t>15963976053</t>
+  </si>
+  <si>
+    <t>autoTest305</t>
+  </si>
+  <si>
+    <t>35042619841015147X</t>
+  </si>
+  <si>
+    <t>15159690180</t>
+  </si>
+  <si>
+    <t>autoTest306</t>
+  </si>
+  <si>
+    <t>320722195407275131</t>
+  </si>
+  <si>
+    <t>13167333511</t>
+  </si>
+  <si>
+    <t>autoTest307</t>
+  </si>
+  <si>
+    <t>441623199202176997</t>
+  </si>
+  <si>
+    <t>15907600113</t>
+  </si>
+  <si>
+    <t>autoTest308</t>
+  </si>
+  <si>
+    <t>230524195412044530</t>
+  </si>
+  <si>
+    <t>15607897407</t>
+  </si>
+  <si>
+    <t>autoTest309</t>
+  </si>
+  <si>
+    <t>510603196904059857</t>
+  </si>
+  <si>
+    <t>13627692783</t>
+  </si>
+  <si>
+    <t>autoTest310</t>
+  </si>
+  <si>
+    <t>623022199611168134</t>
+  </si>
+  <si>
+    <t>15673338229</t>
+  </si>
+  <si>
+    <t>autoTest311</t>
+  </si>
+  <si>
+    <t>210113199508224599</t>
+  </si>
+  <si>
+    <t>13335193387</t>
   </si>
   <si>
     <t>蓝明勇</t>
@@ -468,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -649,6 +784,171 @@
     <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +973,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +998,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
+++ b/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>2</t>
   </si>
@@ -277,6 +277,24 @@
   </si>
   <si>
     <t>13335193387</t>
+  </si>
+  <si>
+    <t>autoTest312</t>
+  </si>
+  <si>
+    <t>330682195304223833</t>
+  </si>
+  <si>
+    <t>13585260100</t>
+  </si>
+  <si>
+    <t>autoTest313</t>
+  </si>
+  <si>
+    <t>331002198008111458</t>
+  </si>
+  <si>
+    <t>18755143302</t>
   </si>
   <si>
     <t>蓝明勇</t>
@@ -603,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -949,6 +967,28 @@
       </c>
       <c r="C37" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +1013,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -998,10 +1038,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
+++ b/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>2</t>
   </si>
@@ -295,6 +295,150 @@
   </si>
   <si>
     <t>18755143302</t>
+  </si>
+  <si>
+    <t>autoTest314</t>
+  </si>
+  <si>
+    <t>320583199107105990</t>
+  </si>
+  <si>
+    <t>15881635389</t>
+  </si>
+  <si>
+    <t>autoTest315</t>
+  </si>
+  <si>
+    <t>350305195712135933</t>
+  </si>
+  <si>
+    <t>13630301232</t>
+  </si>
+  <si>
+    <t>autoTest316</t>
+  </si>
+  <si>
+    <t>532326198111148297</t>
+  </si>
+  <si>
+    <t>13870723848</t>
+  </si>
+  <si>
+    <t>autoTest317</t>
+  </si>
+  <si>
+    <t>411600198010166378</t>
+  </si>
+  <si>
+    <t>13031919910</t>
+  </si>
+  <si>
+    <t>autoTest318</t>
+  </si>
+  <si>
+    <t>231085198509112376</t>
+  </si>
+  <si>
+    <t>13259288000</t>
+  </si>
+  <si>
+    <t>autoTest319</t>
+  </si>
+  <si>
+    <t>360281195703297319</t>
+  </si>
+  <si>
+    <t>14715420062</t>
+  </si>
+  <si>
+    <t>autoTest320</t>
+  </si>
+  <si>
+    <t>220724197206028394</t>
+  </si>
+  <si>
+    <t>15722103078</t>
+  </si>
+  <si>
+    <t>autoTest321</t>
+  </si>
+  <si>
+    <t>440300197204191858</t>
+  </si>
+  <si>
+    <t>13676176607</t>
+  </si>
+  <si>
+    <t>autoTest322</t>
+  </si>
+  <si>
+    <t>450603199211171237</t>
+  </si>
+  <si>
+    <t>13682250975</t>
+  </si>
+  <si>
+    <t>autoTest323</t>
+  </si>
+  <si>
+    <t>350505196601246492</t>
+  </si>
+  <si>
+    <t>13701223344</t>
+  </si>
+  <si>
+    <t>autoTest324</t>
+  </si>
+  <si>
+    <t>13112220010615085X</t>
+  </si>
+  <si>
+    <t>15117918868</t>
+  </si>
+  <si>
+    <t>autoTest325</t>
+  </si>
+  <si>
+    <t>231102198103208313</t>
+  </si>
+  <si>
+    <t>18899837427</t>
+  </si>
+  <si>
+    <t>autoTest326</t>
+  </si>
+  <si>
+    <t>371402197303113936</t>
+  </si>
+  <si>
+    <t>15682952930</t>
+  </si>
+  <si>
+    <t>autoTest327</t>
+  </si>
+  <si>
+    <t>42010519600527141X</t>
+  </si>
+  <si>
+    <t>13190508870</t>
+  </si>
+  <si>
+    <t>autoTest328</t>
+  </si>
+  <si>
+    <t>512021195501280896</t>
+  </si>
+  <si>
+    <t>15793139628</t>
+  </si>
+  <si>
+    <t>autoTest329</t>
+  </si>
+  <si>
+    <t>361028198408098335</t>
+  </si>
+  <si>
+    <t>18606106642</t>
   </si>
   <si>
     <t>蓝明勇</t>
@@ -621,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -989,6 +1133,182 @@
       </c>
       <c r="C39" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +1333,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1038,10 +1358,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
+++ b/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>2</t>
   </si>
@@ -439,6 +439,213 @@
   </si>
   <si>
     <t>18606106642</t>
+  </si>
+  <si>
+    <t>autoTest330</t>
+  </si>
+  <si>
+    <t>420302197511243952</t>
+  </si>
+  <si>
+    <t>18835515909</t>
+  </si>
+  <si>
+    <t>autoTest331</t>
+  </si>
+  <si>
+    <t>420302196803286992</t>
+  </si>
+  <si>
+    <t>13884246026</t>
+  </si>
+  <si>
+    <t>autoTest332</t>
+  </si>
+  <si>
+    <t>420200195102175138</t>
+  </si>
+  <si>
+    <t>18880435932</t>
+  </si>
+  <si>
+    <t>autoTest333</t>
+  </si>
+  <si>
+    <t>32040519970513237X</t>
+  </si>
+  <si>
+    <t>15328475155</t>
+  </si>
+  <si>
+    <t>autoTest334</t>
+  </si>
+  <si>
+    <t>35020619510126653X</t>
+  </si>
+  <si>
+    <t>13171148934</t>
+  </si>
+  <si>
+    <t>autoTest335</t>
+  </si>
+  <si>
+    <t>350206195205087472</t>
+  </si>
+  <si>
+    <t>13651158325</t>
+  </si>
+  <si>
+    <t>autoTest336</t>
+  </si>
+  <si>
+    <t>520527199809035858</t>
+  </si>
+  <si>
+    <t>15630962518</t>
+  </si>
+  <si>
+    <t>autoTest337</t>
+  </si>
+  <si>
+    <t>32030519780627847X</t>
+  </si>
+  <si>
+    <t>15616012016</t>
+  </si>
+  <si>
+    <t>autoTest338</t>
+  </si>
+  <si>
+    <t>320305197102064916</t>
+  </si>
+  <si>
+    <t>15266578851</t>
+  </si>
+  <si>
+    <t>autoTest339</t>
+  </si>
+  <si>
+    <t>130682196606171554</t>
+  </si>
+  <si>
+    <t>15974125819</t>
+  </si>
+  <si>
+    <t>autoTest340</t>
+  </si>
+  <si>
+    <t>130682198205213257</t>
+  </si>
+  <si>
+    <t>13205642880</t>
+  </si>
+  <si>
+    <t>autoTest341</t>
+  </si>
+  <si>
+    <t>450923200107153239</t>
+  </si>
+  <si>
+    <t>15148561190</t>
+  </si>
+  <si>
+    <t>autoTest342</t>
+  </si>
+  <si>
+    <t>450923198706110759</t>
+  </si>
+  <si>
+    <t>13253815014</t>
+  </si>
+  <si>
+    <t>autoTest343</t>
+  </si>
+  <si>
+    <t>340103196005113179</t>
+  </si>
+  <si>
+    <t>18683731100</t>
+  </si>
+  <si>
+    <t>autoTest344</t>
+  </si>
+  <si>
+    <t>34010320011012395X</t>
+  </si>
+  <si>
+    <t>18815586932</t>
+  </si>
+  <si>
+    <t>autoTest345</t>
+  </si>
+  <si>
+    <t>460107197104135098</t>
+  </si>
+  <si>
+    <t>15209341023</t>
+  </si>
+  <si>
+    <t>autoTest346</t>
+  </si>
+  <si>
+    <t>42280019500921159X</t>
+  </si>
+  <si>
+    <t>13265329441</t>
+  </si>
+  <si>
+    <t>autoTest347</t>
+  </si>
+  <si>
+    <t>422800197202253416</t>
+  </si>
+  <si>
+    <t>15571526226</t>
+  </si>
+  <si>
+    <t>autoTest348</t>
+  </si>
+  <si>
+    <t>130631196503230099</t>
+  </si>
+  <si>
+    <t>13558097130</t>
+  </si>
+  <si>
+    <t>autoTest349</t>
+  </si>
+  <si>
+    <t>130631198403249154</t>
+  </si>
+  <si>
+    <t>15568121632</t>
+  </si>
+  <si>
+    <t>autoTest350</t>
+  </si>
+  <si>
+    <t>130631198002295539</t>
+  </si>
+  <si>
+    <t>15924269912</t>
+  </si>
+  <si>
+    <t>autoTest351</t>
+  </si>
+  <si>
+    <t>130631196505136151</t>
+  </si>
+  <si>
+    <t>13904645157</t>
+  </si>
+  <si>
+    <t>autoTest352</t>
+  </si>
+  <si>
+    <t>130631199903220096</t>
+  </si>
+  <si>
+    <t>13887283455</t>
   </si>
   <si>
     <t>蓝明勇</t>
@@ -765,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -1309,6 +1516,259 @@
       </c>
       <c r="C55" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B77" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1793,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>330</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -1358,10 +1818,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
+++ b/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>2</t>
   </si>
@@ -646,6 +646,168 @@
   </si>
   <si>
     <t>13887283455</t>
+  </si>
+  <si>
+    <t>autoTest353</t>
+  </si>
+  <si>
+    <t>410821197210086353</t>
+  </si>
+  <si>
+    <t>13879342877</t>
+  </si>
+  <si>
+    <t>autoTest354</t>
+  </si>
+  <si>
+    <t>445300196503095073</t>
+  </si>
+  <si>
+    <t>15258645505</t>
+  </si>
+  <si>
+    <t>autoTest355</t>
+  </si>
+  <si>
+    <t>441900195101152914</t>
+  </si>
+  <si>
+    <t>13343718183</t>
+  </si>
+  <si>
+    <t>autoTest356</t>
+  </si>
+  <si>
+    <t>211404196908205853</t>
+  </si>
+  <si>
+    <t>15729235904</t>
+  </si>
+  <si>
+    <t>autoTest357</t>
+  </si>
+  <si>
+    <t>21140419780810809X</t>
+  </si>
+  <si>
+    <t>15897181109</t>
+  </si>
+  <si>
+    <t>autoTest358</t>
+  </si>
+  <si>
+    <t>211404198509156651</t>
+  </si>
+  <si>
+    <t>13910439189</t>
+  </si>
+  <si>
+    <t>autoTest359</t>
+  </si>
+  <si>
+    <t>211404196908260553</t>
+  </si>
+  <si>
+    <t>13275074668</t>
+  </si>
+  <si>
+    <t>autoTest360</t>
+  </si>
+  <si>
+    <t>211404199612125057</t>
+  </si>
+  <si>
+    <t>13947028326</t>
+  </si>
+  <si>
+    <t>autoTest361</t>
+  </si>
+  <si>
+    <t>120102195702023695</t>
+  </si>
+  <si>
+    <t>13023935885</t>
+  </si>
+  <si>
+    <t>autoTest362</t>
+  </si>
+  <si>
+    <t>120102199110261292</t>
+  </si>
+  <si>
+    <t>13560238965</t>
+  </si>
+  <si>
+    <t>autoTest363</t>
+  </si>
+  <si>
+    <t>120102198310269534</t>
+  </si>
+  <si>
+    <t>13971464201</t>
+  </si>
+  <si>
+    <t>autoTest364</t>
+  </si>
+  <si>
+    <t>120102195708169636</t>
+  </si>
+  <si>
+    <t>18608535716</t>
+  </si>
+  <si>
+    <t>autoTest365</t>
+  </si>
+  <si>
+    <t>120102195306148250</t>
+  </si>
+  <si>
+    <t>15263679231</t>
+  </si>
+  <si>
+    <t>autoTest366</t>
+  </si>
+  <si>
+    <t>12010219510522371X</t>
+  </si>
+  <si>
+    <t>13624842956</t>
+  </si>
+  <si>
+    <t>autoTest367</t>
+  </si>
+  <si>
+    <t>120102199202239359</t>
+  </si>
+  <si>
+    <t>15982192467</t>
+  </si>
+  <si>
+    <t>autoTest368</t>
+  </si>
+  <si>
+    <t>120102200011241072</t>
+  </si>
+  <si>
+    <t>15028989931</t>
+  </si>
+  <si>
+    <t>autoTest369</t>
+  </si>
+  <si>
+    <t>120102196503111398</t>
+  </si>
+  <si>
+    <t>13746862008</t>
+  </si>
+  <si>
+    <t>autoTest370</t>
+  </si>
+  <si>
+    <t>120102197509107394</t>
+  </si>
+  <si>
+    <t>18735933323</t>
   </si>
   <si>
     <t>蓝明勇</t>
@@ -972,7 +1134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -1769,6 +1931,204 @@
       </c>
       <c r="C78" t="s">
         <v>209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>243</v>
+      </c>
+      <c r="B90" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>258</v>
+      </c>
+      <c r="B95" t="s">
+        <v>259</v>
+      </c>
+      <c r="C95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +2153,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -1818,10 +2178,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
+++ b/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>2</t>
   </si>
@@ -808,6 +808,24 @@
   </si>
   <si>
     <t>18735933323</t>
+  </si>
+  <si>
+    <t>dautoTest371</t>
+  </si>
+  <si>
+    <t>420625199104237635</t>
+  </si>
+  <si>
+    <t>15117487242</t>
+  </si>
+  <si>
+    <t>dautoTest372</t>
+  </si>
+  <si>
+    <t>440308199907305452</t>
+  </si>
+  <si>
+    <t>15038717583</t>
   </si>
   <si>
     <t>蓝明勇</t>
@@ -1134,7 +1152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -2129,6 +2147,28 @@
       </c>
       <c r="C96" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" t="s">
+        <v>268</v>
+      </c>
+      <c r="C98" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2193,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2178,10 +2218,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
+++ b/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
   <si>
     <t>2</t>
   </si>
@@ -826,6 +826,231 @@
   </si>
   <si>
     <t>15038717583</t>
+  </si>
+  <si>
+    <t>autoTest373</t>
+  </si>
+  <si>
+    <t>43042119710818803X</t>
+  </si>
+  <si>
+    <t>15520007026</t>
+  </si>
+  <si>
+    <t>autoTest374</t>
+  </si>
+  <si>
+    <t>542227199804287035</t>
+  </si>
+  <si>
+    <t>13782016473</t>
+  </si>
+  <si>
+    <t>autoTest375</t>
+  </si>
+  <si>
+    <t>370687198306179074</t>
+  </si>
+  <si>
+    <t>13113271796</t>
+  </si>
+  <si>
+    <t>autoTest376</t>
+  </si>
+  <si>
+    <t>140931198903076112</t>
+  </si>
+  <si>
+    <t>15148283815</t>
+  </si>
+  <si>
+    <t>autoTest377</t>
+  </si>
+  <si>
+    <t>530721199704237650</t>
+  </si>
+  <si>
+    <t>13981989834</t>
+  </si>
+  <si>
+    <t>autoTest378</t>
+  </si>
+  <si>
+    <t>360732196910197411</t>
+  </si>
+  <si>
+    <t>13997843416</t>
+  </si>
+  <si>
+    <t>autoTest379</t>
+  </si>
+  <si>
+    <t>130128197011298395</t>
+  </si>
+  <si>
+    <t>15961630909</t>
+  </si>
+  <si>
+    <t>autoTest380</t>
+  </si>
+  <si>
+    <t>522723196806042511</t>
+  </si>
+  <si>
+    <t>13012748947</t>
+  </si>
+  <si>
+    <t>autoTest381</t>
+  </si>
+  <si>
+    <t>510681199509068457</t>
+  </si>
+  <si>
+    <t>13095560261</t>
+  </si>
+  <si>
+    <t>autoTest382</t>
+  </si>
+  <si>
+    <t>370400197512114595</t>
+  </si>
+  <si>
+    <t>13246493933</t>
+  </si>
+  <si>
+    <t>autoTest383</t>
+  </si>
+  <si>
+    <t>34130219870918341X</t>
+  </si>
+  <si>
+    <t>13126774421</t>
+  </si>
+  <si>
+    <t>autoTest384</t>
+  </si>
+  <si>
+    <t>341302199009067017</t>
+  </si>
+  <si>
+    <t>15989147351</t>
+  </si>
+  <si>
+    <t>dautoTest385</t>
+  </si>
+  <si>
+    <t>340881195011090914</t>
+  </si>
+  <si>
+    <t>15284378279</t>
+  </si>
+  <si>
+    <t>autoTest386</t>
+  </si>
+  <si>
+    <t>350825199510250790</t>
+  </si>
+  <si>
+    <t>13787777879</t>
+  </si>
+  <si>
+    <t>autoTest387</t>
+  </si>
+  <si>
+    <t>350825196805266913</t>
+  </si>
+  <si>
+    <t>15295937532</t>
+  </si>
+  <si>
+    <t>autoTest388</t>
+  </si>
+  <si>
+    <t>542100197312083410</t>
+  </si>
+  <si>
+    <t>18835341114</t>
+  </si>
+  <si>
+    <t>autoTest389</t>
+  </si>
+  <si>
+    <t>54210019590715563X</t>
+  </si>
+  <si>
+    <t>13858390853</t>
+  </si>
+  <si>
+    <t>autoTest390</t>
+  </si>
+  <si>
+    <t>632826196509238673</t>
+  </si>
+  <si>
+    <t>13335350022</t>
+  </si>
+  <si>
+    <t>autoTest391</t>
+  </si>
+  <si>
+    <t>632826198201022090</t>
+  </si>
+  <si>
+    <t>18854180730</t>
+  </si>
+  <si>
+    <t>autoTest392</t>
+  </si>
+  <si>
+    <t>420203196102225215</t>
+  </si>
+  <si>
+    <t>13382142965</t>
+  </si>
+  <si>
+    <t>autoTest393</t>
+  </si>
+  <si>
+    <t>420203199007095591</t>
+  </si>
+  <si>
+    <t>13371563548</t>
+  </si>
+  <si>
+    <t>dautoTest394</t>
+  </si>
+  <si>
+    <t>420203195503187411</t>
+  </si>
+  <si>
+    <t>13757109232</t>
+  </si>
+  <si>
+    <t>autoTest395</t>
+  </si>
+  <si>
+    <t>420203196809202615</t>
+  </si>
+  <si>
+    <t>15075505700</t>
+  </si>
+  <si>
+    <t>autoTest396</t>
+  </si>
+  <si>
+    <t>42020319651012603X</t>
+  </si>
+  <si>
+    <t>13619824162</t>
+  </si>
+  <si>
+    <t>autoTest397</t>
+  </si>
+  <si>
+    <t>420203196301045719</t>
+  </si>
+  <si>
+    <t>13337207748</t>
   </si>
   <si>
     <t>蓝明勇</t>
@@ -1152,7 +1377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -2169,6 +2394,281 @@
       </c>
       <c r="C98" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" t="s">
+        <v>271</v>
+      </c>
+      <c r="C99" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" t="s">
+        <v>274</v>
+      </c>
+      <c r="C100" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="B101" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104" t="s">
+        <v>286</v>
+      </c>
+      <c r="C104" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>288</v>
+      </c>
+      <c r="B105" t="s">
+        <v>289</v>
+      </c>
+      <c r="C105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106" t="s">
+        <v>292</v>
+      </c>
+      <c r="C106" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>294</v>
+      </c>
+      <c r="B107" t="s">
+        <v>295</v>
+      </c>
+      <c r="C107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>297</v>
+      </c>
+      <c r="B108" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>300</v>
+      </c>
+      <c r="B109" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>306</v>
+      </c>
+      <c r="B111" t="s">
+        <v>307</v>
+      </c>
+      <c r="C111" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>309</v>
+      </c>
+      <c r="B112" t="s">
+        <v>310</v>
+      </c>
+      <c r="C112" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>312</v>
+      </c>
+      <c r="B113" t="s">
+        <v>313</v>
+      </c>
+      <c r="C113" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114" t="s">
+        <v>316</v>
+      </c>
+      <c r="C114" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" t="s">
+        <v>319</v>
+      </c>
+      <c r="C115" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>321</v>
+      </c>
+      <c r="B116" t="s">
+        <v>322</v>
+      </c>
+      <c r="C116" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>324</v>
+      </c>
+      <c r="B117" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>327</v>
+      </c>
+      <c r="B118" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>330</v>
+      </c>
+      <c r="B119" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>333</v>
+      </c>
+      <c r="B120" t="s">
+        <v>334</v>
+      </c>
+      <c r="C120" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>336</v>
+      </c>
+      <c r="B121" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>339</v>
+      </c>
+      <c r="B122" t="s">
+        <v>340</v>
+      </c>
+      <c r="C122" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>342</v>
+      </c>
+      <c r="B123" t="s">
+        <v>343</v>
+      </c>
+      <c r="C123" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2693,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2218,10 +2718,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
+++ b/YZ_AutoTest_Project/Website/test_data/Excel_File/StudentBaseInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
   <si>
     <t>2</t>
   </si>
@@ -1051,6 +1051,186 @@
   </si>
   <si>
     <t>13337207748</t>
+  </si>
+  <si>
+    <t>autoTest398</t>
+  </si>
+  <si>
+    <t>321322196009046732</t>
+  </si>
+  <si>
+    <t>13122060584</t>
+  </si>
+  <si>
+    <t>autoTest399</t>
+  </si>
+  <si>
+    <t>321322200102231958</t>
+  </si>
+  <si>
+    <t>13674546503</t>
+  </si>
+  <si>
+    <t>dautoTest400</t>
+  </si>
+  <si>
+    <t>321322198206172972</t>
+  </si>
+  <si>
+    <t>15840328663</t>
+  </si>
+  <si>
+    <t>autoTest401</t>
+  </si>
+  <si>
+    <t>321322195907055513</t>
+  </si>
+  <si>
+    <t>15887943411</t>
+  </si>
+  <si>
+    <t>autoTest402</t>
+  </si>
+  <si>
+    <t>321322196001145234</t>
+  </si>
+  <si>
+    <t>15386745888</t>
+  </si>
+  <si>
+    <t>autoTest403</t>
+  </si>
+  <si>
+    <t>321322197312232196</t>
+  </si>
+  <si>
+    <t>13033900682</t>
+  </si>
+  <si>
+    <t>autoTest404</t>
+  </si>
+  <si>
+    <t>371623198101217718</t>
+  </si>
+  <si>
+    <t>15382577232</t>
+  </si>
+  <si>
+    <t>autoTest405</t>
+  </si>
+  <si>
+    <t>371623199305018635</t>
+  </si>
+  <si>
+    <t>15123692537</t>
+  </si>
+  <si>
+    <t>autoTest406</t>
+  </si>
+  <si>
+    <t>310104199708303715</t>
+  </si>
+  <si>
+    <t>15127893402</t>
+  </si>
+  <si>
+    <t>autoTest407</t>
+  </si>
+  <si>
+    <t>310104198407262839</t>
+  </si>
+  <si>
+    <t>15854624134</t>
+  </si>
+  <si>
+    <t>dautoTest408</t>
+  </si>
+  <si>
+    <t>310104197204184979</t>
+  </si>
+  <si>
+    <t>15361055915</t>
+  </si>
+  <si>
+    <t>autoTest409</t>
+  </si>
+  <si>
+    <t>310104195707149412</t>
+  </si>
+  <si>
+    <t>13114430842</t>
+  </si>
+  <si>
+    <t>autoTest410</t>
+  </si>
+  <si>
+    <t>310104198905055277</t>
+  </si>
+  <si>
+    <t>18819763759</t>
+  </si>
+  <si>
+    <t>autoTest411</t>
+  </si>
+  <si>
+    <t>31010419880811209X</t>
+  </si>
+  <si>
+    <t>18741248099</t>
+  </si>
+  <si>
+    <t>autoTest412</t>
+  </si>
+  <si>
+    <t>520323196401219354</t>
+  </si>
+  <si>
+    <t>13582145436</t>
+  </si>
+  <si>
+    <t>autoTest413</t>
+  </si>
+  <si>
+    <t>22020419790919787X</t>
+  </si>
+  <si>
+    <t>13115261027</t>
+  </si>
+  <si>
+    <t>autoTest414</t>
+  </si>
+  <si>
+    <t>220204197701076518</t>
+  </si>
+  <si>
+    <t>13448639111</t>
+  </si>
+  <si>
+    <t>dautoTest415</t>
+  </si>
+  <si>
+    <t>220204196604239632</t>
+  </si>
+  <si>
+    <t>15884330560</t>
+  </si>
+  <si>
+    <t>autoTest416</t>
+  </si>
+  <si>
+    <t>530402195307015030</t>
+  </si>
+  <si>
+    <t>15082535170</t>
+  </si>
+  <si>
+    <t>autoTest417</t>
+  </si>
+  <si>
+    <t>530402197701093319</t>
+  </si>
+  <si>
+    <t>15270536811</t>
   </si>
   <si>
     <t>蓝明勇</t>
@@ -1377,7 +1557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -2669,6 +2849,226 @@
       </c>
       <c r="C123" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>345</v>
+      </c>
+      <c r="B124" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>348</v>
+      </c>
+      <c r="B125" t="s">
+        <v>349</v>
+      </c>
+      <c r="C125" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" t="s">
+        <v>352</v>
+      </c>
+      <c r="C126" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>354</v>
+      </c>
+      <c r="B127" t="s">
+        <v>355</v>
+      </c>
+      <c r="C127" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" t="s">
+        <v>358</v>
+      </c>
+      <c r="C128" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>360</v>
+      </c>
+      <c r="B129" t="s">
+        <v>361</v>
+      </c>
+      <c r="C129" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" t="s">
+        <v>364</v>
+      </c>
+      <c r="C130" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>366</v>
+      </c>
+      <c r="B131" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>372</v>
+      </c>
+      <c r="B133" t="s">
+        <v>373</v>
+      </c>
+      <c r="C133" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>375</v>
+      </c>
+      <c r="B134" t="s">
+        <v>376</v>
+      </c>
+      <c r="C134" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>378</v>
+      </c>
+      <c r="B135" t="s">
+        <v>379</v>
+      </c>
+      <c r="C135" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>381</v>
+      </c>
+      <c r="B136" t="s">
+        <v>382</v>
+      </c>
+      <c r="C136" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>384</v>
+      </c>
+      <c r="B137" t="s">
+        <v>385</v>
+      </c>
+      <c r="C137" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>387</v>
+      </c>
+      <c r="B138" t="s">
+        <v>388</v>
+      </c>
+      <c r="C138" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>390</v>
+      </c>
+      <c r="B139" t="s">
+        <v>391</v>
+      </c>
+      <c r="C139" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>393</v>
+      </c>
+      <c r="B140" t="s">
+        <v>394</v>
+      </c>
+      <c r="C140" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>396</v>
+      </c>
+      <c r="B141" t="s">
+        <v>397</v>
+      </c>
+      <c r="C141" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>399</v>
+      </c>
+      <c r="B142" t="s">
+        <v>400</v>
+      </c>
+      <c r="C142" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>402</v>
+      </c>
+      <c r="B143" t="s">
+        <v>403</v>
+      </c>
+      <c r="C143" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -2693,7 +3093,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="n">
-        <v>398</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -2718,10 +3118,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
